--- a/DOM_Banner/output/dept_banner/Peter Ott_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Peter Ott_2022.xlsx
@@ -2153,7 +2153,7 @@
         <is>
           <t>list(au_id = c("https://openalex.org/A5053434417", "https://openalex.org/A5090100242", "https://openalex.org/A5005707441", "https://openalex.org/A5006147905", "https://openalex.org/A5027999373", "https://openalex.org/A5075763247", "https://openalex.org/A5015984752", "https://openalex.org/A5059158988", "https://openalex.org/A5084607692", "https://openalex.org/A5057470830", "https://openalex.org/A5036172185", "https://openalex.org/A5014882919", "https://openalex.org/A5072641596", "https://openalex.org/A5005923405", 
 "https://openalex.org/A5009531475", "https://openalex.org/A5063597334", "https://openalex.org/A5018746315", "https://openalex.org/A5055020443", "https://openalex.org/A5085086661"), au_display_name = c("Xu Chu", "Guang Yang", "Alexandros Terzis", "Visakh Vaikuntanathan", "Wenkang Wang", "Zhouhang Li", "Grazia Lamanna", "Stephanie Fest-Santini", "Maurizio Santini", "Gianpietro Cossali", "Phillip M. Ligrani", "Bassam A. Younis", "Michael Crawford", "Peter Ott", "Jürgen Köhler", "Christian Rohde", 
-"Claus-Dieter Münz", "Rainer Helmig", "Tianshou Zhao"), au_orcid = c("https://orcid.org/0000-0001-8456-1865", "https://orcid.org/0000-0002-8430-6917", NA, "https://orcid.org/0000-0002-1781-2334", "https://orcid.org/0000-0003-4134-8364", "https://orcid.org/0000-0003-1513-6499", "https://orcid.org/0000-0002-1725-9663", "https://orcid.org/0000-0002-0613-390X", "https://orcid.org/0000-0003-4652-3264", "https://orcid.org/0000-0003-2550-6780", "https://orcid.org/0000-0002-0313-9580", "https://orcid.org/0000-0002-3437-1219", 
+"Claus‐Dieter Munz", "Rainer Helmig", "Tianshou Zhao"), au_orcid = c("https://orcid.org/0000-0001-8456-1865", "https://orcid.org/0000-0002-8430-6917", NA, "https://orcid.org/0000-0002-1781-2334", "https://orcid.org/0000-0003-4134-8364", "https://orcid.org/0000-0003-1513-6499", "https://orcid.org/0000-0002-1725-9663", "https://orcid.org/0000-0002-0613-390X", "https://orcid.org/0000-0003-4652-3264", "https://orcid.org/0000-0003-2550-6780", "https://orcid.org/0000-0002-0313-9580", "https://orcid.org/0000-0002-3437-1219", 
 NA, "https://orcid.org/0000-0002-3088-1983", NA, "https://orcid.org/0000-0001-6778-5971", NA, "https://orcid.org/0000-0003-2601-5377", "https://orcid.org/0000-0002-9598-932X"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("University of Stuttgart, Germany", "Shanghai Jiao Tong University, China", "Technion - Israel Institute of Technology, Israel", 
 "Shiv Nadar University, India", "University of Stuttgart, Germany", "Kunming University of Science and Technology, China", "University of Stuttgart, Germany", "Università degli Studi di Bergamo, Italy", "Università degli Studi di Bergamo, Italy", "Università degli Studi di Bergamo, Italy", "University of Alabama at Huntsville, USA", "University of California - Davis, USA", "The University of Texas at Austin, USA", "EPFL, Switzerland", "TU Braunschweig, Germany", "University of Stuttgart, Germany", 
 "University of Stuttgart, Germany", "University of Stuttgart, Germany", "Hong Kong University of Science and Technology, China"), institution_id = c("https://openalex.org/I100066346", "https://openalex.org/I183067930", "https://openalex.org/I174306211", "https://openalex.org/I26604189", "https://openalex.org/I100066346", "https://openalex.org/I10660446", "https://openalex.org/I100066346", "https://openalex.org/I11039511", "https://openalex.org/I11039511", "https://openalex.org/I11039511", "https://openalex.org/I82495205", 

--- a/DOM_Banner/output/dept_banner/Peter Ott_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Peter Ott_2022.xlsx
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Abstract Zinc inhibits intestinal copper uptake, an effect utilized for treating Wilson’s disease (WD). We used copper-64 ( 64 Cu) PET/CT to examine how much four weeks of treatment with different zinc regimens reduced the hepatic 64 Cu content after oral 64 Cu administration and test if alternative regimens were noninferior to the standard regimen of zinc acetate 50 mg × 3 daily. Forty healthy persons were randomized to four different zinc protocols. The WD standard treatment zinc acetate 50 mg × 3 reduced the hepatic 64 Cu content from 26.9 ± 7.5% to 13.3 ± 5.6% of the administered 64 Cu. Zinc gluconate 50 mg × 3 was noninferior ( P = 0.02) (35.8 ± 9.0% to 17.4 ± 7.5%). Zinc acetate 150 mg × 1 (33.1 ± 9.9% to 17.4 ± 7.5%) and zinc gluconate 150 mg × 1 (28.1 ± 6.7% to 22.0 ± 6.7%) were less effective. These effects were intra- and inter-individually highly variable, and 14% had no effect of any zinc regimen, which may explain disparities in zinc treatment efficacy in WD patients.</t>
+          <t>Zinc inhibits intestinal copper uptake, an effect utilized for treating Wilson's disease (WD). We used copper-64 (64Cu) PET/CT to examine how much four weeks of treatment with different zinc regimens reduced the hepatic 64Cu content after oral 64Cu administration and test if alternative regimens were noninferior to the standard regimen of zinc acetate 50 mg × 3 daily. Forty healthy persons were randomized to four different zinc protocols. The WD standard treatment zinc acetate 50 mg × 3 reduced the hepatic 64Cu content from 26.9 ± 7.5% to 13.3 ± 5.6% of the administered 64Cu. Zinc gluconate 50 mg × 3 was noninferior (P = 0.02) (35.8 ± 9.0% to 17.4 ± 7.5%). Zinc acetate 150 mg × 1 (33.1 ± 9.9% to 17.4 ± 7.5%) and zinc gluconate 150 mg × 1 (28.1 ± 6.7% to 22.0 ± 6.7%) were less effective. These effects were intra- and inter-individually highly variable, and 14% had no effect of any zinc regimen, which may explain disparities in zinc treatment efficacy in WD patients.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2469850045", "https://openalex.org/W2417131764", "https://openalex.org/W2070652985", "https://openalex.org/W2007094274", "https://openalex.org/W1632137160", "https://openalex.org/W2085980434", "https://openalex.org/W2072035168", "https://openalex.org/W1509942693", "https://openalex.org/W171658490", "https://openalex.org/W2358136759")</t>
+          <t>c("https://openalex.org/W2469850045", "https://openalex.org/W2417131764", "https://openalex.org/W2070652985", "https://openalex.org/W2007094274", "https://openalex.org/W2085980434", "https://openalex.org/W1632137160", "https://openalex.org/W2072035168", "https://openalex.org/W1509942693", "https://openalex.org/W171658490", "https://openalex.org/W2358136759")</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -2153,7 +2153,7 @@
         <is>
           <t>list(au_id = c("https://openalex.org/A5053434417", "https://openalex.org/A5090100242", "https://openalex.org/A5005707441", "https://openalex.org/A5006147905", "https://openalex.org/A5027999373", "https://openalex.org/A5075763247", "https://openalex.org/A5015984752", "https://openalex.org/A5059158988", "https://openalex.org/A5084607692", "https://openalex.org/A5057470830", "https://openalex.org/A5036172185", "https://openalex.org/A5014882919", "https://openalex.org/A5072641596", "https://openalex.org/A5005923405", 
 "https://openalex.org/A5009531475", "https://openalex.org/A5063597334", "https://openalex.org/A5018746315", "https://openalex.org/A5055020443", "https://openalex.org/A5085086661"), au_display_name = c("Xu Chu", "Guang Yang", "Alexandros Terzis", "Visakh Vaikuntanathan", "Wenkang Wang", "Zhouhang Li", "Grazia Lamanna", "Stephanie Fest-Santini", "Maurizio Santini", "Gianpietro Cossali", "Phillip M. Ligrani", "Bassam A. Younis", "Michael Crawford", "Peter Ott", "Jürgen Köhler", "Christian Rohde", 
-"Claus‐Dieter Munz", "Rainer Helmig", "Tianshou Zhao"), au_orcid = c("https://orcid.org/0000-0001-8456-1865", "https://orcid.org/0000-0002-8430-6917", NA, "https://orcid.org/0000-0002-1781-2334", "https://orcid.org/0000-0003-4134-8364", "https://orcid.org/0000-0003-1513-6499", "https://orcid.org/0000-0002-1725-9663", "https://orcid.org/0000-0002-0613-390X", "https://orcid.org/0000-0003-4652-3264", "https://orcid.org/0000-0003-2550-6780", "https://orcid.org/0000-0002-0313-9580", "https://orcid.org/0000-0002-3437-1219", 
+"Claus-Dieter Münz", "Rainer Helmig", "Tianshou Zhao"), au_orcid = c("https://orcid.org/0000-0001-8456-1865", "https://orcid.org/0000-0002-8430-6917", NA, "https://orcid.org/0000-0002-1781-2334", "https://orcid.org/0000-0003-4134-8364", "https://orcid.org/0000-0003-1513-6499", "https://orcid.org/0000-0002-1725-9663", "https://orcid.org/0000-0002-0613-390X", "https://orcid.org/0000-0003-4652-3264", "https://orcid.org/0000-0003-2550-6780", "https://orcid.org/0000-0002-0313-9580", "https://orcid.org/0000-0002-3437-1219", 
 NA, "https://orcid.org/0000-0002-3088-1983", NA, "https://orcid.org/0000-0001-6778-5971", NA, "https://orcid.org/0000-0003-2601-5377", "https://orcid.org/0000-0002-9598-932X"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("University of Stuttgart, Germany", "Shanghai Jiao Tong University, China", "Technion - Israel Institute of Technology, Israel", 
 "Shiv Nadar University, India", "University of Stuttgart, Germany", "Kunming University of Science and Technology, China", "University of Stuttgart, Germany", "Università degli Studi di Bergamo, Italy", "Università degli Studi di Bergamo, Italy", "Università degli Studi di Bergamo, Italy", "University of Alabama at Huntsville, USA", "University of California - Davis, USA", "The University of Texas at Austin, USA", "EPFL, Switzerland", "TU Braunschweig, Germany", "University of Stuttgart, Germany", 
 "University of Stuttgart, Germany", "University of Stuttgart, Germany", "Hong Kong University of Science and Technology, China"), institution_id = c("https://openalex.org/I100066346", "https://openalex.org/I183067930", "https://openalex.org/I174306211", "https://openalex.org/I26604189", "https://openalex.org/I100066346", "https://openalex.org/I10660446", "https://openalex.org/I100066346", "https://openalex.org/I11039511", "https://openalex.org/I11039511", "https://openalex.org/I11039511", "https://openalex.org/I82495205", 
@@ -2857,13 +2857,15 @@
       <c r="C15" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5054938817", "https://openalex.org/A5069717460", "https://openalex.org/A5005923405", "https://openalex.org/A5002371143", "https://openalex.org/A5083246247", "https://openalex.org/A5002664988", "https://openalex.org/A5036981869", "https://openalex.org/A5070215060"), au_display_name = c("C.Oma Kamlin", "Michael L. Schilsky", "Peter Ott", "Karl Heinz Weiss", "Massimo Zuin", "Aurélia Poujois", "Aftab Ala", "Koenraad D’Hollander"), au_orcid = c(NA, "https://orcid.org/0000-0001-9043-0554", 
-"https://orcid.org/0000-0002-3088-1983", "https://orcid.org/0000-0002-6336-9935", NA, "https://orcid.org/0000-0002-5640-7534", NA, NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, 
-NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA))</t>
+"https://orcid.org/0000-0002-3088-1983", "https://orcid.org/0000-0002-6336-9935", NA, "https://orcid.org/0000-0002-5640-7534", NA, NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Orphalan SA France, Medical Affairs, London, United Kingdom;", "Yale University, Division of Internal Medicine and Liver Unit, United States;", "Aarhus University Hospital, Aarhus, Denmark;", "Salem Medical Center, Heidelberg, Germany;", "University of Milan, Milan, Italy;", 
+"Fondation Hopital Rothschild, Department of Neurology, Paris;", "Kings College University Hospital, London, United Kingdom;", "International Drug Development Institute (IDDI), Belgium"), institution_id = c(NA, "https://openalex.org/I32971472", "https://openalex.org/I2802335433", "https://openalex.org/I4210146747", "https://openalex.org/I189158943", "https://openalex.org/I4210127304", "https://openalex.org/I4210153400", "https://openalex.org/I4210101853"), institution_display_name = c(NA, "Yale University", 
+"Aarhus University Hospital", "Krankenhaus Salem", "University of Milan", "Fondation de Rothschild", "King's College Hospital", "International Drug Development Institute (Belgium)"), institution_ror = c(NA, "https://ror.org/03v76x132", "https://ror.org/040r8fr65", "https://ror.org/04c9pv832", "https://ror.org/00wjc7c48", "https://ror.org/02yfw7119", "https://ror.org/044nptt90", "https://ror.org/016dg3e07"), institution_country_code = c(NA, "US", "DK", "DE", "IT", "FR", "GB", "BE"), institution_type = c(NA, 
+"education", "healthcare", "healthcare", "education", "nonprofit", "healthcare", "company"), institution_lineage = c(NA, "https://openalex.org/I32971472", "https://openalex.org/I2802335433", "https://openalex.org/I4210146747", "https://openalex.org/I189158943", "https://openalex.org/I4210127304", "https://openalex.org/I4210111135, https://openalex.org/I4210153400", "https://openalex.org/I4210101853"))</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Method: We retrospectively analysis a monocentric cohort of WD patients with liver damage from a referral center for rare diseases.Patients of the cohort were regularly assessed with a maximal interval of 6 months.Patients with a history of cirrhosis had a biannual ultrasound examination.Occurrence, treatment and outcome of primary liver tumors were analyzed.Results: We analyzed 149 WD patients of the cohort, with a mean follow up of 15 years.The mean age at diagnosis of WD was 20.1 years.Sixteen patients were diagnosed with a primary liver tumor during follow up.The mean age at onset of a liver tumor was 52.5 years, with a mean interval between diagnosis of WD and occurrence of tumor of 19.2 years.We diagnosed a hepatocellular carcinoma (HCC) for 10 patients and a cholangiocarcinoma (CCK) for 6 patients.Histological proof could be obtained for 7/10 patients with HCC and for all patients (6/6) with CCK.For the 3 other patient, diagnosis of HCC was based on the morphological aspect (hyper vascular tumor with washout) and elevated AFP markers.All patients who developed a liver tumor had evidence of cirrhosis at the diagnosis of WD.At the diagnostic of tumor, there was no cirrhosis on the pathological examination of the non-tumoral liver for 6 patients (2/10 patients with histological proof of HCC and 4/6 patients with CCK).For all patients with primary liver tumor, a treatment could be proposed.Resection was possible for 8 patients and liver transplantation for 5 patients.During follow up, six patients died from complications of tumor extension (3 from HCC and 3 from CCK).Conclusion: WD patients with history of cirrhosis are at risk of developing primary liver tumor and require morphological screening, even if there is a regression of fibrosis.The proportion of CCK (37.5%) among these tumors suggests an interest of the biopsy for diagnosis of liver cancer in WD patients.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3003,7 +3005,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2053082293", "https://openalex.org/W1606669497", "https://openalex.org/W2518169464", "https://openalex.org/W2962573092", "https://openalex.org/W3046363832", "https://openalex.org/W2055348458", "https://openalex.org/W2166447472", "https://openalex.org/W2340113261", "https://openalex.org/W2891508892", "https://openalex.org/W4288401684")</t>
+          <t>c("https://openalex.org/W339681517", "https://openalex.org/W4322576098", "https://openalex.org/W2167689122", "https://openalex.org/W2071434358", "https://openalex.org/W2124699488", "https://openalex.org/W2053082293", "https://openalex.org/W1606669497", "https://openalex.org/W2518169464", "https://openalex.org/W2166447472", "https://openalex.org/W4288401684")</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Peter Ott_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Peter Ott_2022.xlsx
@@ -688,7 +688,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Matilde B Ørum, Frederikke Falkencrone Rönsholt, M. Jeppesen, Elisabeth Bendstrup, Terese L. Katzenstein, Peter Ott, Michael Perch, Tacjana Pressler, Tavs Qvist, Søren Jensen‐Fangel</t>
+          <t>Matilde B Ørum, Frederikke Falkencrone Rønsholt, M. Jeppesen, Elisabeth Bendstrup, Terese L. Katzenstein, Peter Ott, Michael Perch, Tacjana Pressler, Tavs Qvist, Søren Jensen‐Fangel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Xu Chu, Guang Yang, Alexandros Terzis, Visakh Vaikuntanathan, Wenkang Wang, Zhouhang Li, Grazia Lamanna, Stephanie Fest-Santini, Maurizio Santini, Gianpietro Cossali, Phillip M. Ligrani, Bassam A. Younis, Michael Crawford, Peter Ott, Jürgen Köhler, Christian Rohde, Claus‐Dieter Munz, Rainer Helmig, Tianshou Zhao</t>
+          <t>Xu Chu, Guang Yang, Alexandros Terzis, Visakh Vaikuntanathan, Wenkang Wang, Zhouhang Li, Grazia Lamanna, Stephanie Fest-Santini, Maurizio Santini, Gianpietro Cossali, Phillip M. Ligrani, Bassam A. Younis, Michael Crawford, Peter Ott, Jürgen Köhler, Christian Rohde, Claus-Dieter Münz, Rainer Helmig, Tianshou Zhao</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Peter Ott_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Peter Ott_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Hepatology and Gastroenterology, Aarhus University Hospital , Aarhus , Denmark.; Department of Nuclear Medicine and PET Aarhus University Hospital Aarhus Denmark.; Department of Nuclear Medicine and PET Aarhus University Hospital Aarhus Denmark; Department of Nuclear Medicine and PET Aarhus University Hospital Aarhus Denmark.; Department of Hepatology and Gastroenterology, Aarhus University Hospital , Aarhus , Denmark.; Department of Nuclear Medicine and PET Aarhus University Hospital Aarhus Denmark.; Department of Nuclear Medicine and PET Aarhus University Hospital Aarhus Denmark.; Department of Nuclear Medicine and PET Aarhus University Hospital Aarhus Denmark; Department of Nuclear Medicine and PET Aarhus University Hospital Aarhus Denmark.; Department of Nuclear Medicine and PET Aarhus University Hospital Aarhus Denmark.; Department of Hepatology and Gastroenterology, Aarhus University Hospital , Aarhus , Denmark.; Department of Hepatology and Gastroenterology, Aarhus University Hospital , Aarhus , Denmark.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3212419102</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The pathophysiology of Wilson’s disease visualized: A human 64Cu PET study</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-01-10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Hepatology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/hep.32238</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34773664</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/hep.32238</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4298111857</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Trientine tetrahydrochloride versus penicillamine for maintenance therapy in Wilson disease (CHELATE): a randomised, open-label, non-inferiority, phase 3 trial</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The Lancet Gastroenterology &amp; Hepatology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2468-1253(22)00270-9</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36183738</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2468-1253(22)00270-9</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Hepatology &amp; Gastroenterology, Aarhus University Hospital, Denmark; Department of Internal Medicine, Viborg Regional Hospital, Denmark; Department of Drug Design &amp; Pharmacology, University of Copenhagen, Denmark; Department of Hepatology &amp; Gastroenterology, Aarhus University Hospital, Denmark; Department of Clinical Biochemistry, Copenhagen University Hospital, Rigshospitalet, Denmark; Department of Drug Design &amp; Pharmacology, University of Copenhagen, Denmark; Department of Drug Design &amp; Pharmacology, University of Copenhagen, Denmark; Department of Hepatology &amp; Gastroenterology, Aarhus University Hospital, Denmark; Department of Hepatology &amp; Gastroenterology, Aarhus University Hospital, Denmark; Department of Drug Design &amp; Pharmacology, University of Copenhagen, Denmark</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281823137</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Low cerebral energy metabolism in hepatic encephalopathy reflects low neuronal energy demand. Role of ammonia-induced increased GABAergic tone</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Analytical Biochemistry</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ab.2022.114766</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35654134</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ab.2022.114766</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,44 +708,44 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Matilde B Ørum, Frederikke Falkencrone Rønsholt, M. Jeppesen, Elisabeth Bendstrup, Terese L. Katzenstein, Peter Ott, Michael Perch, Tacjana Pressler, Tavs Qvist, Søren Jensen‐Fangel</t>
+          <t>Matilde B Ørum, Frederikke Falkencrone Rönsholt, M. Jeppesen, Elisabeth Bendstrup, Terese L. Katzenstein, Peter Ott, Michael Perch, Tacjana Pressler, Tavs Qvist, Søren Jensen‐Fangel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Infectious Diseases, Cystic Fibrosis Clinic, Aarhus University Hospital, Aarhus, Denmark; Department of Cardiology, Section for Lung Transplantation, University Hospital Rigshospitalet Copenhagen, Kobenhavn, Denmark; Department of Infectious Diseases, Cystic Fibrosis Clinic, Aarhus University Hospital, Aarhus, Denmark; Institute of Clinical Medicine, Aarhus University, Aarhus, Denmark; Department of Respiratory Diseases and Allergy, Center for Rare Lung Diseases, Aarhus University Hospital, Aarhus, Denmark; Institute of Clinical Medicine, Aarhus University, Aarhus, Denmark; Department of Infectious Diseases, Cystic Fibrosis Clinic, University Hospital Rigshospitalet Copenhagen, Kobenhavn, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Institute of Clinical Medicine, Aarhus University, Aarhus, Denmark; Department Clinical Medicine, University of Copenhagen, Copenhagen, Denmark; Department of Cardiology, Section for Lung Transplantation, University Hospital Rigshospitalet Copenhagen, Kobenhavn, Denmark; Department of Infectious Diseases, Cystic Fibrosis Clinic, University Hospital Rigshospitalet Copenhagen, Kobenhavn, Denmark; Department of Infectious Diseases, Cystic Fibrosis Clinic, University Hospital Rigshospitalet Copenhagen, Kobenhavn, Denmark; Department of Infectious Diseases, Cystic Fibrosis Clinic, Aarhus University Hospital, Aarhus, Denmark; Institute of Clinical Medicine, Aarhus University, Aarhus, Denmark</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307771980</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Outcome of elexacaftor/tezacaftor/ivacaftor therapy in patients with cystic fibrosis and solid organ transplantation</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-11-11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Pediatric Pulmonology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/ppul.26217</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36314653</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/ppul.26217</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283822660</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Efficacy and safety of ALXN1840 versus standard of care in Wilson disease: primary results from an ongoing phase 3, randomized, controlled, rater-blinded trial</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of Hepatology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0168-8278(22)00428-7</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0168-8278(22)00428-7</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Hepatology and Gastroenterology, Aarhus University Hospital, ERN Rare Liver, Aarhus, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, ERN Rare Liver, Aarhus, Denmark; Department of Genetics, Copenhagen University, Rigshospitalet, København, Denmark; Department of Genetics, Copenhagen University, Rigshospitalet, København, Denmark; Department of Radiology and MR-center, Aarhus University Hospital, Aarhus, Denmark; Department of Neurology, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, ERN Rare Liver, Aarhus, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, ERN Rare Liver, Aarhus, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, ERN Rare Liver, Aarhus, Denmark</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294325313</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Case report: Huppke–Brendel syndrome in an adult, mistaken for and treated as Wilson disease for 25 years</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Frontiers in Neurology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fneur.2022.957794</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36119696</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fneur.2022.957794</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus N, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus N, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus N, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus N, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus N, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus N, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus N, Denmark</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206521228</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>The galactose elimination capacity test to monitor liver disease course in patients with Wilson’s disease</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-01-07</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Scandinavian Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Taylor &amp; Francis</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/00365521.2021.2024248</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34994677</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/00365521.2021.2024248</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Hepatology and Gastroenterology, Aarhus University Hospital, Palle Juul-Jensens Boulevard 99, Aarhus N, Denmark. dittmu@rm.dk.; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus N, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus N, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus N, Denmark; Institute of Liver Studies, King’s College Hospital NHS Foundation Trust, London, UK; Department of Nuclear Medicine and PET Centre, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus N, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus N, Denmark</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293680323</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Effect of oral zinc regimens on human hepatic copper content: a randomized intervention study</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Scientific Reports</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-022-18872-8</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36038585</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-022-18872-8</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>EPFL, Group of Thermal Turbomachinery (GTT), 1015 Lausanne, Switzerland; University of Stuttgart, Institute of Aerospace Thermodynamics, 70569 Stuttgart, Germany; EPFL, Group of Thermal Turbomachinery (GTT), 1015 Lausanne, Switzerland; Stanford University, Department of Mechanical Engineering, CA-94605, USA; EPFL, Group of Thermal Turbomachinery (GTT), 1015 Lausanne, Switzerland; University of Stuttgart, Institute of Aerospace Thermodynamics, 70569 Stuttgart, Germany</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3118696860</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Accuracy improvement of the transient heater foil technique for heat transfer tests: preliminary results</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>E3S web of conferences</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>EDP Sciences</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1051/e3sconf/202234502002</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1051/e3sconf/202234502002</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,44 +1230,44 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Xu Chu, Guang Yang, Alexandros Terzis, Visakh Vaikuntanathan, Wenkang Wang, Zhouhang Li, Grazia Lamanna, Stephanie Fest-Santini, Maurizio Santini, Gianpietro Cossali, Phillip M. Ligrani, Bassam A. Younis, Michael Crawford, Peter Ott, Jürgen Köhler, Christian Rohde, Claus-Dieter Münz, Rainer Helmig, Tianshou Zhao</t>
+          <t>Xu Chu, Guang Yang, Alexandros Terzis, Visakh Vaikuntanathan, Wenkang Wang, Zhouhang Li, Grazia Lamanna, Stephanie Fest-Santini, Maurizio Santini, Gianpietro Cossali, Phillip M. Ligrani, Bassam A. Younis, Michael Crawford, Peter Ott, Jürgen Köhler, Christian Rohde, Claus‐Dieter Munz, Rainer Helmig, Tianshou Zhao</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>University of Stuttgart, Germany; Shanghai Jiao Tong University, China; Technion - Israel Institute of Technology, Israel; Shiv Nadar University, India; University of Stuttgart, Germany; Kunming University of Science and Technology, China; University of Stuttgart, Germany; Università degli Studi di Bergamo, Italy; Università degli Studi di Bergamo, Italy; Università degli Studi di Bergamo, Italy; University of Alabama at Huntsville, USA; University of California - Davis, USA; The University of Texas at Austin, USA; EPFL, Switzerland; TU Braunschweig, Germany; University of Stuttgart, Germany; University of Stuttgart, Germany; University of Stuttgart, Germany; Hong Kong University of Science and Technology, China</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210503238</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Celebration of Professor Bernhard Weigand on his 60th birthday</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>International Journal of Heat and Mass Transfer</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ijheatmasstransfer.2022.122626</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ijheatmasstransfer.2022.122626</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,39 +1322,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4214607846</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>7 HISTORIOGRAFIEN DES KINOS:</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>https://doi.org/10.14361/9783839460023-007</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.14361/9783839460023-007</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1349,39 +1409,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>University of Milan, San Paolo Hospital, Liver and Gastroenterology Unit, Milan, Italy; Institute of Psychiatry and Neurology, Neurology, Warsaw, Poland; KU Leuven, Department of Clinical and Experimental Medicine, Leuven, Belgium; Fondation Hopital Rothschild, Neurologie, Paris, France; Aarhus University Hospital, Medical Dept LMT Hepatology and Gastroenterology, Aarhus, Denmark; IDDI, Biostatistics, Louvain-la-Neuve, Belgium; Salem Medical Center, Dept. of Internal Medicine, Heidelberg, Germany; University of Milan, San Paolo Hospital, Liver and Gastroenterology Unit, Milan, Italy; University of Milan, San Paolo Hospital, Liver and Gastroenterology Unit, Milan, Italy; Orphalan SA France, Medical Affairs, Milan, Italy; Yale University, New Haven, United States</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220845142</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Trientine tetrahydrochloride versus d-Penicillamine for the management of patients with Wilson Disease: results from the CHELATE trial a year after randomisation</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Digestive and Liver Disease</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.dld.2022.01.007</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1389,35 +1449,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.dld.2022.01.007</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,39 +1496,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221051350</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>7 HISTORIOGRAFIEN DES KINOS:</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-12-31</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>transcript Verlag eBooks</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1515/9783839460023-007</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1471,35 +1536,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1515/9783839460023-007</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1513,39 +1583,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Orphalan SA France, Medical Affairs, London, United Kingdom;; Yale University, Division of Internal Medicine and Liver Unit, United States;; Aarhus University Hospital, Aarhus, Denmark;; Salem Medical Center, Heidelberg, Germany;; University of Milan, Milan, Italy;; Fondation Hopital Rothschild, Department of Neurology, Paris;; Kings College University Hospital, London, United Kingdom;; International Drug Development Institute (IDDI), Belgium</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283806033</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Defining the boundaries for “stability” in Wilson disease patients on maintenance chelation therapy: lessons from the CHELATE trial</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Journal of Hepatology</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0168-8278(22)01402-7</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1553,35 +1623,40 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0168-8278(22)01402-7</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,39 +1670,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283822176</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Clinical utility of non-ceruloplasmin copper determined by copper speciation for monitoring Wilson disease therapy: comparative data analysis with 24-hour urinary copper excretion from the CHELATE trial</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Journal of Hepatology</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0168-8278(22)00524-4</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1635,35 +1710,40 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0168-8278(22)00524-4</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,39 +1757,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Krankenhaus Salem der Evang. Stadtmission Heidelberg gGmbH, Heidelberg, Germany; Yale School of Medicine, New Haven, Unites States; 2nd Department of Neurology, Institute of Psychiatry and Neurology, Warsaw, Poland; University of Michigan Health System, Ann Arbor, Unites States; Institute of Liver Studies, Kings College Hospital, London; Royal Surrey County Hospital Guildford, Guildford, UK; Medical University of Vienna, Vienna, Austria; Aarhus University Hospital, Aarhus, Denmark; Sechenov First Moscow State Medical University, Russia; Semmelweis University, Budapest, Hungary; The Children’s Memorial Health Institute, Warsaw, Poland; Toho University School of Medicine, Tokyo, Japan; Ronald Reagan UCLA Medical Center, LA, Unites States; Northwestern University Feinberg School of Medicine, Chicago, Unites States; University of Washington/Seattle Children’s Hospital, Seattle, Unites States; Alexion, AstraZeneca Rare Disease, Boston, Unites States; Alexion, AstraZeneca Rare Disease, Boston, Unites States; Rothschild Foundation Hospital, Paris, France</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296475494</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>O01 Efficacy and safety of ALXN1840 versus standard of care in Wilson disease: primary results from an ongoing phase 3, randomized, controlled, rater-blinded trial</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Abstracts</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1136/gutjnl-2022-basl.1</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1717,35 +1797,40 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/gutjnl-2022-basl.1</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
